--- a/O365-suite-usage.xlsx
+++ b/O365-suite-usage.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\WDSENTINEL\Documents\products and services\courses\Office 365\Intensive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\downloads\source\office365\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEABC05-19F7-4FF2-BBD2-020C59864459}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13710" windowHeight="7230" tabRatio="500"/>
+    <workbookView xWindow="12520" yWindow="-25770" windowWidth="38620" windowHeight="21360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
@@ -25,11 +26,19 @@
     <sheet name="Office" sheetId="14" r:id="rId11"/>
     <sheet name="Power BI" sheetId="15" r:id="rId12"/>
     <sheet name="Planner" sheetId="16" r:id="rId13"/>
-    <sheet name="Video" sheetId="17" r:id="rId14"/>
+    <sheet name="Stream" sheetId="17" r:id="rId14"/>
     <sheet name="Parameters" sheetId="8" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -38,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="87">
   <si>
     <t>Office</t>
   </si>
@@ -296,12 +305,15 @@
   </si>
   <si>
     <t>Adv Security Mgmt</t>
+  </si>
+  <si>
+    <t>Stream</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -794,55 +806,55 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:P12" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" dataCellStyle="Percent">
-  <autoFilter ref="A3:P12"/>
-  <sortState ref="A4:P12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:P12" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" dataCellStyle="Percent">
+  <autoFilter ref="A3:P12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:P12">
     <sortCondition ref="A3:A12"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" name="Customer ID"/>
-    <tableColumn id="2" name="Customer"/>
-    <tableColumn id="3" name="Total" dataDxfId="13" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Customer ID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Customer"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Total" dataDxfId="13" dataCellStyle="Percent">
       <calculatedColumnFormula>SUM(D4:P4)/13</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="E5" dataDxfId="12" dataCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="E5" dataDxfId="12" dataCellStyle="Percent">
       <calculatedColumnFormula>+'E5'!C4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Email" dataDxfId="11" dataCellStyle="Percent">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Email" dataDxfId="11" dataCellStyle="Percent">
       <calculatedColumnFormula>+Email!C4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Delve" dataDxfId="10" dataCellStyle="Percent">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Delve" dataDxfId="10" dataCellStyle="Percent">
       <calculatedColumnFormula>+Delve!C4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Yammer" dataDxfId="9" dataCellStyle="Percent">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Yammer" dataDxfId="9" dataCellStyle="Percent">
       <calculatedColumnFormula>+Yammer!C4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Team Sites" dataDxfId="8" dataCellStyle="Percent">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Team Sites" dataDxfId="8" dataCellStyle="Percent">
       <calculatedColumnFormula>+'Team Sites'!C4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="OneDrive" dataDxfId="7" dataCellStyle="Percent">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="OneDrive" dataDxfId="7" dataCellStyle="Percent">
       <calculatedColumnFormula>+OneDrive!C4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="OneNote" dataDxfId="6" dataCellStyle="Percent">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="OneNote" dataDxfId="6" dataCellStyle="Percent">
       <calculatedColumnFormula>+OneNote!C4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Skype" dataDxfId="5" dataCellStyle="Percent">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Skype" dataDxfId="5" dataCellStyle="Percent">
       <calculatedColumnFormula>+Skype!C4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Teams" dataDxfId="4" dataCellStyle="Percent">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Teams" dataDxfId="4" dataCellStyle="Percent">
       <calculatedColumnFormula>+Teams!C4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Office" dataDxfId="3" dataCellStyle="Percent">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Office" dataDxfId="3" dataCellStyle="Percent">
       <calculatedColumnFormula>+Office!C4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Power BI" dataDxfId="2" dataCellStyle="Percent">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Power BI" dataDxfId="2" dataCellStyle="Percent">
       <calculatedColumnFormula>+'Power BI'!C4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Planner" dataDxfId="1" dataCellStyle="Percent">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Planner" dataDxfId="1" dataCellStyle="Percent">
       <calculatedColumnFormula>+Planner!C4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="Video" dataDxfId="0" dataCellStyle="Percent">
-      <calculatedColumnFormula>+Video!C4</calculatedColumnFormula>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Video" dataDxfId="0" dataCellStyle="Percent">
+      <calculatedColumnFormula>+Stream!C4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1111,7 +1123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1246,7 +1258,7 @@
         <v>0.2</v>
       </c>
       <c r="P4" s="2">
-        <f>+Video!C4</f>
+        <f>+Stream!C4</f>
         <v>0.26666666666666666</v>
       </c>
     </row>
@@ -1310,7 +1322,7 @@
         <v>0.72376942880530915</v>
       </c>
       <c r="P5" s="2">
-        <f>+Video!C5</f>
+        <f>+Stream!C5</f>
         <v>0.62789205767563649</v>
       </c>
     </row>
@@ -1374,7 +1386,7 @@
         <v>0.41703541499955882</v>
       </c>
       <c r="P6" s="2">
-        <f>+Video!C6</f>
+        <f>+Stream!C6</f>
         <v>0.64343640708628058</v>
       </c>
     </row>
@@ -1438,7 +1450,7 @@
         <v>0.33108357489060952</v>
       </c>
       <c r="P7" s="2">
-        <f>+Video!C7</f>
+        <f>+Stream!C7</f>
         <v>0.6184403348474522</v>
       </c>
     </row>
@@ -1502,7 +1514,7 @@
         <v>0.30670349698442312</v>
       </c>
       <c r="P8" s="2">
-        <f>+Video!C8</f>
+        <f>+Stream!C8</f>
         <v>0.5906287212669733</v>
       </c>
     </row>
@@ -1566,7 +1578,7 @@
         <v>0.34287589760068549</v>
       </c>
       <c r="P9" s="2">
-        <f>+Video!C9</f>
+        <f>+Stream!C9</f>
         <v>0.37411181334428062</v>
       </c>
     </row>
@@ -1630,7 +1642,7 @@
         <v>0.74795450553007714</v>
       </c>
       <c r="P10" s="2">
-        <f>+Video!C10</f>
+        <f>+Stream!C10</f>
         <v>0.53652327800587429</v>
       </c>
     </row>
@@ -1694,7 +1706,7 @@
         <v>0.58708345593358691</v>
       </c>
       <c r="P11" s="2">
-        <f>+Video!C11</f>
+        <f>+Stream!C11</f>
         <v>0.41483001168019573</v>
       </c>
     </row>
@@ -1758,7 +1770,7 @@
         <v>0.55728844628723273</v>
       </c>
       <c r="P12" s="2">
-        <f>+Video!C12</f>
+        <f>+Stream!C12</f>
         <v>0.56196807014294581</v>
       </c>
     </row>
@@ -1930,7 +1942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2166,7 +2178,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2552,7 +2564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2826,7 +2838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3044,12 +3056,10 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3062,7 +3072,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3290,7 +3300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3329,7 +3339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3717,7 +3727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4158,7 +4168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4422,7 +4432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4687,7 +4697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4980,7 +4990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5207,7 +5217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5414,7 +5424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5659,12 +5669,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A53270507724F84F915F78BE97F4CA02" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4da3f2ab9bc030203425880e8f2ad276">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="27b4a4f76bea50102067bc7ec8c6d4d1">
     <xsd:element name="properties">
@@ -5778,6 +5782,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46A20A9A-A41E-41CF-A680-64CC16CEF924}">
   <ds:schemaRefs>
@@ -5787,21 +5797,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E939627-59D3-44EC-8DD7-2A320E35E321}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18B90C59-3540-4523-ACFE-BB3F56A6C988}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5815,4 +5810,19 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E939627-59D3-44EC-8DD7-2A320E35E321}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>